--- a/Myntra/MyntraDemoProject/TestData/InputData.xlsx
+++ b/Myntra/MyntraDemoProject/TestData/InputData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>searchtext</t>
   </si>
@@ -32,13 +32,10 @@
     <t>email</t>
   </si>
   <si>
-    <t>pwd</t>
+    <t>mbno</t>
   </si>
   <si>
-    <t>conpwd</t>
-  </si>
-  <si>
-    <t>mbno</t>
+    <t>location</t>
   </si>
   <si>
     <t>AIswarya</t>
@@ -50,10 +47,7 @@
     <t>aisu@12</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>kochi</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1020,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
@@ -1042,7 +1036,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1058,28 +1052,22 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2">
+        <v>8788777</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>9896</v>
       </c>
     </row>
   </sheetData>
